--- a/Project 1 Plots.xlsx
+++ b/Project 1 Plots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\NSSA220_project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimantobhowmik/Downloads/School 3-1/NSSA220/Project1/NSSA220_project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4A3BA-A0E4-428E-87E1-80997915F0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E87A6C-A4D4-5249-AA30-49AA7E28A7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1BE011F7-74EF-AD42-A675-4ADB7191E906}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{1BE011F7-74EF-AD42-A675-4ADB7191E906}"/>
   </bookViews>
   <sheets>
     <sheet name="Process Level Metrics" sheetId="1" r:id="rId1"/>
@@ -759,45 +759,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1307,45 +1268,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,45 +1824,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2450,45 +2333,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3045,45 +2889,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3593,45 +3398,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,45 +3954,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4736,45 +4463,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5331,45 +5019,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5879,45 +5528,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,45 +6084,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7022,45 +6593,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8043,45 +7575,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8591,45 +8084,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9186,45 +8640,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9734,45 +9149,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10329,45 +9705,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10877,45 +10214,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11472,45 +10770,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12020,45 +11279,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12615,45 +11835,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -13163,45 +12344,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13758,45 +12900,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14306,45 +13409,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>7.4</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15327,45 +14391,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -15875,45 +14900,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16470,45 +15456,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -17018,45 +15965,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18044,45 +16952,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -18592,45 +17461,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>13623.82</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19570,45 +18400,6 @@
                 <c:pt idx="166">
                   <c:v>901</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>855</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>865</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>885</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>895</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>900</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20118,45 +18909,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>46646</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23734,23 +22486,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8812629-92F5-464C-B232-A6261D4B831B}">
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23791,7 +22543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -23832,7 +22584,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -23873,7 +22625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17</v>
       </c>
@@ -23914,7 +22666,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22</v>
       </c>
@@ -23955,7 +22707,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28</v>
       </c>
@@ -23996,7 +22748,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -24037,7 +22789,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39</v>
       </c>
@@ -24078,7 +22830,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45</v>
       </c>
@@ -24119,7 +22871,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
@@ -24160,7 +22912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>55</v>
       </c>
@@ -24201,7 +22953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>61</v>
       </c>
@@ -24242,7 +22994,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>66</v>
       </c>
@@ -24283,7 +23035,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>71</v>
       </c>
@@ -24324,7 +23076,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>77</v>
       </c>
@@ -24365,7 +23117,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>82</v>
       </c>
@@ -24406,7 +23158,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>87</v>
       </c>
@@ -24447,7 +23199,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>92</v>
       </c>
@@ -24488,7 +23240,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>97</v>
       </c>
@@ -24529,7 +23281,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>102</v>
       </c>
@@ -24570,7 +23322,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>108</v>
       </c>
@@ -24611,7 +23363,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>113</v>
       </c>
@@ -24652,7 +23404,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>119</v>
       </c>
@@ -24693,7 +23445,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>124</v>
       </c>
@@ -24734,7 +23486,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130</v>
       </c>
@@ -24775,7 +23527,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>136</v>
       </c>
@@ -24816,7 +23568,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>141</v>
       </c>
@@ -24857,7 +23609,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>147</v>
       </c>
@@ -24898,7 +23650,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>152</v>
       </c>
@@ -24939,7 +23691,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>157</v>
       </c>
@@ -24980,7 +23732,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>163</v>
       </c>
@@ -25021,7 +23773,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>168</v>
       </c>
@@ -25062,7 +23814,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>173</v>
       </c>
@@ -25103,7 +23855,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>179</v>
       </c>
@@ -25144,7 +23896,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>184</v>
       </c>
@@ -25185,7 +23937,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>189</v>
       </c>
@@ -25226,7 +23978,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>194</v>
       </c>
@@ -25267,7 +24019,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>199</v>
       </c>
@@ -25308,7 +24060,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>204</v>
       </c>
@@ -25349,7 +24101,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>210</v>
       </c>
@@ -25390,7 +24142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>215</v>
       </c>
@@ -25431,7 +24183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>220</v>
       </c>
@@ -25472,7 +24224,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>226</v>
       </c>
@@ -25513,7 +24265,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>231</v>
       </c>
@@ -25554,7 +24306,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>236</v>
       </c>
@@ -25595,7 +24347,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>242</v>
       </c>
@@ -25636,7 +24388,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>248</v>
       </c>
@@ -25677,7 +24429,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>253</v>
       </c>
@@ -25718,7 +24470,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>259</v>
       </c>
@@ -25759,7 +24511,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>265</v>
       </c>
@@ -25800,7 +24552,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>270</v>
       </c>
@@ -25841,7 +24593,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>276</v>
       </c>
@@ -25882,7 +24634,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>281</v>
       </c>
@@ -25923,7 +24675,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>286</v>
       </c>
@@ -25964,7 +24716,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>291</v>
       </c>
@@ -26005,7 +24757,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>296</v>
       </c>
@@ -26046,7 +24798,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>302</v>
       </c>
@@ -26087,7 +24839,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>307</v>
       </c>
@@ -26128,7 +24880,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>312</v>
       </c>
@@ -26169,7 +24921,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>317</v>
       </c>
@@ -26210,7 +24962,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>322</v>
       </c>
@@ -26251,7 +25003,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>328</v>
       </c>
@@ -26292,7 +25044,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>333</v>
       </c>
@@ -26333,7 +25085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>339</v>
       </c>
@@ -26374,7 +25126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>344</v>
       </c>
@@ -26415,7 +25167,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>349</v>
       </c>
@@ -26456,7 +25208,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>355</v>
       </c>
@@ -26497,7 +25249,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>361</v>
       </c>
@@ -26538,7 +25290,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>366</v>
       </c>
@@ -26579,7 +25331,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>372</v>
       </c>
@@ -26620,7 +25372,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>377</v>
       </c>
@@ -26661,7 +25413,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>383</v>
       </c>
@@ -26702,7 +25454,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>388</v>
       </c>
@@ -26743,7 +25495,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>393</v>
       </c>
@@ -26784,7 +25536,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>398</v>
       </c>
@@ -26825,7 +25577,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>403</v>
       </c>
@@ -26866,7 +25618,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>409</v>
       </c>
@@ -26907,7 +25659,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>414</v>
       </c>
@@ -26948,7 +25700,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>419</v>
       </c>
@@ -26989,7 +25741,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>424</v>
       </c>
@@ -27030,7 +25782,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>429</v>
       </c>
@@ -27071,7 +25823,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>434</v>
       </c>
@@ -27112,7 +25864,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>440</v>
       </c>
@@ -27153,7 +25905,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>446</v>
       </c>
@@ -27194,7 +25946,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>451</v>
       </c>
@@ -27235,7 +25987,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>457</v>
       </c>
@@ -27276,7 +26028,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>463</v>
       </c>
@@ -27317,7 +26069,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>468</v>
       </c>
@@ -27358,7 +26110,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>474</v>
       </c>
@@ -27399,7 +26151,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>480</v>
       </c>
@@ -27440,7 +26192,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>485</v>
       </c>
@@ -27481,7 +26233,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>490</v>
       </c>
@@ -27522,7 +26274,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>495</v>
       </c>
@@ -27563,7 +26315,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>501</v>
       </c>
@@ -27604,7 +26356,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>506</v>
       </c>
@@ -27645,7 +26397,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>511</v>
       </c>
@@ -27686,7 +26438,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>516</v>
       </c>
@@ -27727,7 +26479,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>521</v>
       </c>
@@ -27768,7 +26520,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>526</v>
       </c>
@@ -27809,7 +26561,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>531</v>
       </c>
@@ -27850,7 +26602,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>537</v>
       </c>
@@ -27891,7 +26643,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>542</v>
       </c>
@@ -27932,7 +26684,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>548</v>
       </c>
@@ -27973,7 +26725,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>554</v>
       </c>
@@ -28014,7 +26766,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>559</v>
       </c>
@@ -28055,7 +26807,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>565</v>
       </c>
@@ -28096,7 +26848,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>570</v>
       </c>
@@ -28137,7 +26889,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>576</v>
       </c>
@@ -28178,7 +26930,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>581</v>
       </c>
@@ -28219,7 +26971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>587</v>
       </c>
@@ -28260,7 +27012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>592</v>
       </c>
@@ -28301,7 +27053,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>598</v>
       </c>
@@ -28342,7 +27094,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>603</v>
       </c>
@@ -28383,7 +27135,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>608</v>
       </c>
@@ -28424,7 +27176,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>613</v>
       </c>
@@ -28465,7 +27217,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>618</v>
       </c>
@@ -28506,7 +27258,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>623</v>
       </c>
@@ -28547,7 +27299,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>628</v>
       </c>
@@ -28588,7 +27340,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>634</v>
       </c>
@@ -28629,7 +27381,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>639</v>
       </c>
@@ -28670,7 +27422,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>645</v>
       </c>
@@ -28711,7 +27463,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>650</v>
       </c>
@@ -28752,7 +27504,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>656</v>
       </c>
@@ -28793,7 +27545,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>661</v>
       </c>
@@ -28834,7 +27586,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>667</v>
       </c>
@@ -28875,7 +27627,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>673</v>
       </c>
@@ -28916,7 +27668,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>678</v>
       </c>
@@ -28957,7 +27709,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>684</v>
       </c>
@@ -28998,7 +27750,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>689</v>
       </c>
@@ -29039,7 +27791,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>694</v>
       </c>
@@ -29080,7 +27832,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>700</v>
       </c>
@@ -29121,7 +27873,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>705</v>
       </c>
@@ -29162,7 +27914,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>710</v>
       </c>
@@ -29203,7 +27955,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>715</v>
       </c>
@@ -29244,7 +27996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>720</v>
       </c>
@@ -29285,7 +28037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>725</v>
       </c>
@@ -29326,7 +28078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>730</v>
       </c>
@@ -29367,7 +28119,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>736</v>
       </c>
@@ -29408,7 +28160,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>741</v>
       </c>
@@ -29449,7 +28201,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>746</v>
       </c>
@@ -29490,7 +28242,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>752</v>
       </c>
@@ -29531,7 +28283,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>758</v>
       </c>
@@ -29572,7 +28324,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>763</v>
       </c>
@@ -29613,7 +28365,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>769</v>
       </c>
@@ -29654,7 +28406,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>774</v>
       </c>
@@ -29695,7 +28447,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>780</v>
       </c>
@@ -29736,7 +28488,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>785</v>
       </c>
@@ -29777,7 +28529,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>791</v>
       </c>
@@ -29818,7 +28570,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>796</v>
       </c>
@@ -29859,7 +28611,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>802</v>
       </c>
@@ -29900,7 +28652,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>807</v>
       </c>
@@ -29941,7 +28693,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>813</v>
       </c>
@@ -29982,7 +28734,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>818</v>
       </c>
@@ -30023,7 +28775,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>823</v>
       </c>
@@ -30064,7 +28816,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>828</v>
       </c>
@@ -30105,7 +28857,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>833</v>
       </c>
@@ -30146,7 +28898,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>838</v>
       </c>
@@ -30187,7 +28939,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>843</v>
       </c>
@@ -30228,7 +28980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>849</v>
       </c>
@@ -30269,7 +29021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>854</v>
       </c>
@@ -30310,7 +29062,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>860</v>
       </c>
@@ -30351,7 +29103,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>865</v>
       </c>
@@ -30392,7 +29144,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>871</v>
       </c>
@@ -30433,7 +29185,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>877</v>
       </c>
@@ -30474,7 +29226,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>883</v>
       </c>
@@ -30515,7 +29267,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>889</v>
       </c>
@@ -30556,7 +29308,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>895</v>
       </c>
@@ -30597,7 +29349,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>901</v>
       </c>
@@ -30636,539 +29388,6 @@
       </c>
       <c r="M168">
         <v>7.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>840</v>
-      </c>
-      <c r="B169">
-        <v>5</v>
-      </c>
-      <c r="C169">
-        <v>5</v>
-      </c>
-      <c r="D169">
-        <v>10</v>
-      </c>
-      <c r="E169">
-        <v>10</v>
-      </c>
-      <c r="F169">
-        <v>15</v>
-      </c>
-      <c r="G169">
-        <v>15</v>
-      </c>
-      <c r="H169">
-        <v>20</v>
-      </c>
-      <c r="I169">
-        <v>20</v>
-      </c>
-      <c r="J169">
-        <v>25</v>
-      </c>
-      <c r="K169">
-        <v>25</v>
-      </c>
-      <c r="L169">
-        <v>30</v>
-      </c>
-      <c r="M169">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>845</v>
-      </c>
-      <c r="B170">
-        <v>5</v>
-      </c>
-      <c r="C170">
-        <v>5</v>
-      </c>
-      <c r="D170">
-        <v>10</v>
-      </c>
-      <c r="E170">
-        <v>10</v>
-      </c>
-      <c r="F170">
-        <v>15</v>
-      </c>
-      <c r="G170">
-        <v>15</v>
-      </c>
-      <c r="H170">
-        <v>20</v>
-      </c>
-      <c r="I170">
-        <v>20</v>
-      </c>
-      <c r="J170">
-        <v>25</v>
-      </c>
-      <c r="K170">
-        <v>25</v>
-      </c>
-      <c r="L170">
-        <v>30</v>
-      </c>
-      <c r="M170">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>850</v>
-      </c>
-      <c r="B171">
-        <v>5</v>
-      </c>
-      <c r="C171">
-        <v>5</v>
-      </c>
-      <c r="D171">
-        <v>10</v>
-      </c>
-      <c r="E171">
-        <v>10</v>
-      </c>
-      <c r="F171">
-        <v>15</v>
-      </c>
-      <c r="G171">
-        <v>15</v>
-      </c>
-      <c r="H171">
-        <v>20</v>
-      </c>
-      <c r="I171">
-        <v>20</v>
-      </c>
-      <c r="J171">
-        <v>25</v>
-      </c>
-      <c r="K171">
-        <v>25</v>
-      </c>
-      <c r="L171">
-        <v>30</v>
-      </c>
-      <c r="M171">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>855</v>
-      </c>
-      <c r="B172">
-        <v>5</v>
-      </c>
-      <c r="C172">
-        <v>5</v>
-      </c>
-      <c r="D172">
-        <v>10</v>
-      </c>
-      <c r="E172">
-        <v>10</v>
-      </c>
-      <c r="F172">
-        <v>15</v>
-      </c>
-      <c r="G172">
-        <v>15</v>
-      </c>
-      <c r="H172">
-        <v>20</v>
-      </c>
-      <c r="I172">
-        <v>20</v>
-      </c>
-      <c r="J172">
-        <v>25</v>
-      </c>
-      <c r="K172">
-        <v>25</v>
-      </c>
-      <c r="L172">
-        <v>30</v>
-      </c>
-      <c r="M172">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>860</v>
-      </c>
-      <c r="B173">
-        <v>5</v>
-      </c>
-      <c r="C173">
-        <v>5</v>
-      </c>
-      <c r="D173">
-        <v>10</v>
-      </c>
-      <c r="E173">
-        <v>10</v>
-      </c>
-      <c r="F173">
-        <v>15</v>
-      </c>
-      <c r="G173">
-        <v>15</v>
-      </c>
-      <c r="H173">
-        <v>20</v>
-      </c>
-      <c r="I173">
-        <v>20</v>
-      </c>
-      <c r="J173">
-        <v>25</v>
-      </c>
-      <c r="K173">
-        <v>25</v>
-      </c>
-      <c r="L173">
-        <v>30</v>
-      </c>
-      <c r="M173">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>865</v>
-      </c>
-      <c r="B174">
-        <v>5</v>
-      </c>
-      <c r="C174">
-        <v>5</v>
-      </c>
-      <c r="D174">
-        <v>10</v>
-      </c>
-      <c r="E174">
-        <v>10</v>
-      </c>
-      <c r="F174">
-        <v>15</v>
-      </c>
-      <c r="G174">
-        <v>15</v>
-      </c>
-      <c r="H174">
-        <v>20</v>
-      </c>
-      <c r="I174">
-        <v>20</v>
-      </c>
-      <c r="J174">
-        <v>25</v>
-      </c>
-      <c r="K174">
-        <v>25</v>
-      </c>
-      <c r="L174">
-        <v>30</v>
-      </c>
-      <c r="M174">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>870</v>
-      </c>
-      <c r="B175">
-        <v>5</v>
-      </c>
-      <c r="C175">
-        <v>5</v>
-      </c>
-      <c r="D175">
-        <v>10</v>
-      </c>
-      <c r="E175">
-        <v>10</v>
-      </c>
-      <c r="F175">
-        <v>15</v>
-      </c>
-      <c r="G175">
-        <v>15</v>
-      </c>
-      <c r="H175">
-        <v>20</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
-      </c>
-      <c r="J175">
-        <v>25</v>
-      </c>
-      <c r="K175">
-        <v>25</v>
-      </c>
-      <c r="L175">
-        <v>30</v>
-      </c>
-      <c r="M175">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>875</v>
-      </c>
-      <c r="B176">
-        <v>5</v>
-      </c>
-      <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <v>10</v>
-      </c>
-      <c r="E176">
-        <v>10</v>
-      </c>
-      <c r="F176">
-        <v>15</v>
-      </c>
-      <c r="G176">
-        <v>15</v>
-      </c>
-      <c r="H176">
-        <v>20</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
-      </c>
-      <c r="J176">
-        <v>25</v>
-      </c>
-      <c r="K176">
-        <v>25</v>
-      </c>
-      <c r="L176">
-        <v>30</v>
-      </c>
-      <c r="M176">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>880</v>
-      </c>
-      <c r="B177">
-        <v>5</v>
-      </c>
-      <c r="C177">
-        <v>5</v>
-      </c>
-      <c r="D177">
-        <v>10</v>
-      </c>
-      <c r="E177">
-        <v>10</v>
-      </c>
-      <c r="F177">
-        <v>15</v>
-      </c>
-      <c r="G177">
-        <v>15</v>
-      </c>
-      <c r="H177">
-        <v>20</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
-      </c>
-      <c r="J177">
-        <v>25</v>
-      </c>
-      <c r="K177">
-        <v>25</v>
-      </c>
-      <c r="L177">
-        <v>30</v>
-      </c>
-      <c r="M177">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>885</v>
-      </c>
-      <c r="B178">
-        <v>5</v>
-      </c>
-      <c r="C178">
-        <v>5</v>
-      </c>
-      <c r="D178">
-        <v>10</v>
-      </c>
-      <c r="E178">
-        <v>10</v>
-      </c>
-      <c r="F178">
-        <v>15</v>
-      </c>
-      <c r="G178">
-        <v>15</v>
-      </c>
-      <c r="H178">
-        <v>20</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
-      </c>
-      <c r="J178">
-        <v>25</v>
-      </c>
-      <c r="K178">
-        <v>25</v>
-      </c>
-      <c r="L178">
-        <v>30</v>
-      </c>
-      <c r="M178">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>890</v>
-      </c>
-      <c r="B179">
-        <v>5</v>
-      </c>
-      <c r="C179">
-        <v>5</v>
-      </c>
-      <c r="D179">
-        <v>10</v>
-      </c>
-      <c r="E179">
-        <v>10</v>
-      </c>
-      <c r="F179">
-        <v>15</v>
-      </c>
-      <c r="G179">
-        <v>15</v>
-      </c>
-      <c r="H179">
-        <v>20</v>
-      </c>
-      <c r="I179">
-        <v>20</v>
-      </c>
-      <c r="J179">
-        <v>25</v>
-      </c>
-      <c r="K179">
-        <v>25</v>
-      </c>
-      <c r="L179">
-        <v>30</v>
-      </c>
-      <c r="M179">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>895</v>
-      </c>
-      <c r="B180">
-        <v>5</v>
-      </c>
-      <c r="C180">
-        <v>5</v>
-      </c>
-      <c r="D180">
-        <v>10</v>
-      </c>
-      <c r="E180">
-        <v>10</v>
-      </c>
-      <c r="F180">
-        <v>15</v>
-      </c>
-      <c r="G180">
-        <v>15</v>
-      </c>
-      <c r="H180">
-        <v>20</v>
-      </c>
-      <c r="I180">
-        <v>20</v>
-      </c>
-      <c r="J180">
-        <v>25</v>
-      </c>
-      <c r="K180">
-        <v>25</v>
-      </c>
-      <c r="L180">
-        <v>30</v>
-      </c>
-      <c r="M180">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>900</v>
-      </c>
-      <c r="B181">
-        <v>5</v>
-      </c>
-      <c r="C181">
-        <v>5</v>
-      </c>
-      <c r="D181">
-        <v>10</v>
-      </c>
-      <c r="E181">
-        <v>10</v>
-      </c>
-      <c r="F181">
-        <v>15</v>
-      </c>
-      <c r="G181">
-        <v>15</v>
-      </c>
-      <c r="H181">
-        <v>20</v>
-      </c>
-      <c r="I181">
-        <v>20</v>
-      </c>
-      <c r="J181">
-        <v>25</v>
-      </c>
-      <c r="K181">
-        <v>25</v>
-      </c>
-      <c r="L181">
-        <v>30</v>
-      </c>
-      <c r="M181">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -31181,18 +29400,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A0B70D-4DC9-B441-8C8D-6D60C763BC85}">
   <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31209,7 +29428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -31226,7 +29445,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -31243,7 +29462,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17</v>
       </c>
@@ -31260,7 +29479,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22</v>
       </c>
@@ -31277,7 +29496,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28</v>
       </c>
@@ -31294,7 +29513,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -31311,7 +29530,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>39</v>
       </c>
@@ -31328,7 +29547,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45</v>
       </c>
@@ -31345,7 +29564,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
@@ -31362,7 +29581,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>55</v>
       </c>
@@ -31379,7 +29598,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>61</v>
       </c>
@@ -31396,7 +29615,7 @@
         <v>46626</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>66</v>
       </c>
@@ -31413,7 +29632,7 @@
         <v>46498</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>71</v>
       </c>
@@ -31430,7 +29649,7 @@
         <v>46370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>77</v>
       </c>
@@ -31447,7 +29666,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>82</v>
       </c>
@@ -31464,7 +29683,7 @@
         <v>46114</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>87</v>
       </c>
@@ -31481,7 +29700,7 @@
         <v>46114</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>92</v>
       </c>
@@ -31498,7 +29717,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>97</v>
       </c>
@@ -31515,7 +29734,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>102</v>
       </c>
@@ -31532,7 +29751,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>108</v>
       </c>
@@ -31549,7 +29768,7 @@
         <v>45602</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>113</v>
       </c>
@@ -31566,7 +29785,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>119</v>
       </c>
@@ -31583,7 +29802,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>124</v>
       </c>
@@ -31600,7 +29819,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>130</v>
       </c>
@@ -31617,7 +29836,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>136</v>
       </c>
@@ -31634,7 +29853,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>141</v>
       </c>
@@ -31651,7 +29870,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>147</v>
       </c>
@@ -31668,7 +29887,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>152</v>
       </c>
@@ -31685,7 +29904,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>157</v>
       </c>
@@ -31702,7 +29921,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>163</v>
       </c>
@@ -31719,7 +29938,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>168</v>
       </c>
@@ -31736,7 +29955,7 @@
         <v>44579</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>173</v>
       </c>
@@ -31753,7 +29972,7 @@
         <v>42523</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>179</v>
       </c>
@@ -31770,7 +29989,7 @@
         <v>42523</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>184</v>
       </c>
@@ -31787,7 +30006,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>189</v>
       </c>
@@ -31804,7 +30023,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>194</v>
       </c>
@@ -31821,7 +30040,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>199</v>
       </c>
@@ -31838,7 +30057,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>204</v>
       </c>
@@ -31855,7 +30074,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>210</v>
       </c>
@@ -31872,7 +30091,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>215</v>
       </c>
@@ -31889,7 +30108,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>220</v>
       </c>
@@ -31906,7 +30125,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>226</v>
       </c>
@@ -31923,7 +30142,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>231</v>
       </c>
@@ -31940,7 +30159,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>236</v>
       </c>
@@ -31957,7 +30176,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>242</v>
       </c>
@@ -31974,7 +30193,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>248</v>
       </c>
@@ -31991,7 +30210,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>253</v>
       </c>
@@ -32008,7 +30227,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>259</v>
       </c>
@@ -32025,7 +30244,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>265</v>
       </c>
@@ -32042,7 +30261,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>270</v>
       </c>
@@ -32059,7 +30278,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>276</v>
       </c>
@@ -32076,7 +30295,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>281</v>
       </c>
@@ -32093,7 +30312,7 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>286</v>
       </c>
@@ -32110,7 +30329,7 @@
         <v>38419</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>291</v>
       </c>
@@ -32127,7 +30346,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>296</v>
       </c>
@@ -32144,7 +30363,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>302</v>
       </c>
@@ -32161,7 +30380,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>307</v>
       </c>
@@ -32178,7 +30397,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>312</v>
       </c>
@@ -32195,7 +30414,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>317</v>
       </c>
@@ -32212,7 +30431,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>322</v>
       </c>
@@ -32229,7 +30448,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>328</v>
       </c>
@@ -32246,7 +30465,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>333</v>
       </c>
@@ -32263,7 +30482,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>339</v>
       </c>
@@ -32280,7 +30499,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>344</v>
       </c>
@@ -32297,7 +30516,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>349</v>
       </c>
@@ -32314,7 +30533,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>355</v>
       </c>
@@ -32331,7 +30550,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>361</v>
       </c>
@@ -32348,7 +30567,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>366</v>
       </c>
@@ -32365,7 +30584,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>372</v>
       </c>
@@ -32382,7 +30601,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>377</v>
       </c>
@@ -32399,7 +30618,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>383</v>
       </c>
@@ -32416,7 +30635,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>388</v>
       </c>
@@ -32433,7 +30652,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>393</v>
       </c>
@@ -32450,7 +30669,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>398</v>
       </c>
@@ -32467,7 +30686,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>403</v>
       </c>
@@ -32484,7 +30703,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>409</v>
       </c>
@@ -32501,7 +30720,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>414</v>
       </c>
@@ -32518,7 +30737,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>419</v>
       </c>
@@ -32535,7 +30754,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>424</v>
       </c>
@@ -32552,7 +30771,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>429</v>
       </c>
@@ -32569,7 +30788,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>434</v>
       </c>
@@ -32586,7 +30805,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>440</v>
       </c>
@@ -32603,7 +30822,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>446</v>
       </c>
@@ -32620,7 +30839,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>451</v>
       </c>
@@ -32637,7 +30856,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>457</v>
       </c>
@@ -32654,7 +30873,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>463</v>
       </c>
@@ -32671,7 +30890,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>468</v>
       </c>
@@ -32688,7 +30907,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>474</v>
       </c>
@@ -32705,7 +30924,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>480</v>
       </c>
@@ -32722,7 +30941,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>485</v>
       </c>
@@ -32739,7 +30958,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>490</v>
       </c>
@@ -32756,7 +30975,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>495</v>
       </c>
@@ -32773,7 +30992,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>501</v>
       </c>
@@ -32790,7 +31009,7 @@
         <v>38435</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>506</v>
       </c>
@@ -32807,7 +31026,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>511</v>
       </c>
@@ -32824,7 +31043,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>516</v>
       </c>
@@ -32841,7 +31060,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>521</v>
       </c>
@@ -32858,7 +31077,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>526</v>
       </c>
@@ -32875,7 +31094,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>531</v>
       </c>
@@ -32892,7 +31111,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>537</v>
       </c>
@@ -32909,7 +31128,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>542</v>
       </c>
@@ -32926,7 +31145,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>548</v>
       </c>
@@ -32943,7 +31162,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>554</v>
       </c>
@@ -32960,7 +31179,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>559</v>
       </c>
@@ -32977,7 +31196,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>565</v>
       </c>
@@ -32994,7 +31213,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>570</v>
       </c>
@@ -33011,7 +31230,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>576</v>
       </c>
@@ -33028,7 +31247,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>581</v>
       </c>
@@ -33045,7 +31264,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>587</v>
       </c>
@@ -33062,7 +31281,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>592</v>
       </c>
@@ -33079,7 +31298,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>598</v>
       </c>
@@ -33096,7 +31315,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>603</v>
       </c>
@@ -33113,7 +31332,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>608</v>
       </c>
@@ -33130,7 +31349,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>613</v>
       </c>
@@ -33147,7 +31366,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>618</v>
       </c>
@@ -33164,7 +31383,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>623</v>
       </c>
@@ -33181,7 +31400,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>628</v>
       </c>
@@ -33198,7 +31417,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>634</v>
       </c>
@@ -33215,7 +31434,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>639</v>
       </c>
@@ -33232,7 +31451,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>645</v>
       </c>
@@ -33249,7 +31468,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>650</v>
       </c>
@@ -33266,7 +31485,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>656</v>
       </c>
@@ -33283,7 +31502,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>661</v>
       </c>
@@ -33300,7 +31519,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>667</v>
       </c>
@@ -33317,7 +31536,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>673</v>
       </c>
@@ -33334,7 +31553,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>678</v>
       </c>
@@ -33351,7 +31570,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>684</v>
       </c>
@@ -33368,7 +31587,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>689</v>
       </c>
@@ -33385,7 +31604,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>694</v>
       </c>
@@ -33402,7 +31621,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>700</v>
       </c>
@@ -33419,7 +31638,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>705</v>
       </c>
@@ -33436,7 +31655,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>710</v>
       </c>
@@ -33453,7 +31672,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>715</v>
       </c>
@@ -33470,7 +31689,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>720</v>
       </c>
@@ -33487,7 +31706,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>725</v>
       </c>
@@ -33504,7 +31723,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>730</v>
       </c>
@@ -33521,7 +31740,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>736</v>
       </c>
@@ -33538,7 +31757,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>741</v>
       </c>
@@ -33555,7 +31774,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>746</v>
       </c>
@@ -33572,7 +31791,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>752</v>
       </c>
@@ -33589,7 +31808,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>758</v>
       </c>
@@ -33606,7 +31825,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>763</v>
       </c>
@@ -33623,7 +31842,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>769</v>
       </c>
@@ -33640,7 +31859,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>774</v>
       </c>
@@ -33657,7 +31876,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>780</v>
       </c>
@@ -33674,7 +31893,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>785</v>
       </c>
@@ -33691,7 +31910,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>791</v>
       </c>
@@ -33708,7 +31927,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>796</v>
       </c>
@@ -33725,7 +31944,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>802</v>
       </c>
@@ -33742,7 +31961,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>807</v>
       </c>
@@ -33759,7 +31978,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>813</v>
       </c>
@@ -33776,7 +31995,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>818</v>
       </c>
@@ -33793,7 +32012,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>823</v>
       </c>
@@ -33810,7 +32029,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>828</v>
       </c>
@@ -33827,7 +32046,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>833</v>
       </c>
@@ -33844,7 +32063,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>838</v>
       </c>
@@ -33861,7 +32080,7 @@
         <v>30243</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>843</v>
       </c>
@@ -33878,7 +32097,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>849</v>
       </c>
@@ -33895,7 +32114,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>854</v>
       </c>
@@ -33912,7 +32131,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>860</v>
       </c>
@@ -33929,7 +32148,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>865</v>
       </c>
@@ -33946,7 +32165,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>871</v>
       </c>
@@ -33963,7 +32182,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>877</v>
       </c>
@@ -33980,7 +32199,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>883</v>
       </c>
@@ -33997,7 +32216,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>889</v>
       </c>
@@ -34014,7 +32233,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>895</v>
       </c>
@@ -34031,7 +32250,7 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>901</v>
       </c>
@@ -34048,226 +32267,44 @@
         <v>46646</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>840</v>
-      </c>
-      <c r="B169">
-        <v>100</v>
-      </c>
-      <c r="C169">
-        <v>200</v>
-      </c>
-      <c r="D169">
-        <v>300</v>
-      </c>
-      <c r="E169">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>845</v>
-      </c>
-      <c r="B170">
-        <v>100</v>
-      </c>
-      <c r="C170">
-        <v>200</v>
-      </c>
-      <c r="D170">
-        <v>300</v>
-      </c>
-      <c r="E170">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>850</v>
-      </c>
-      <c r="B171">
-        <v>100</v>
-      </c>
-      <c r="C171">
-        <v>200</v>
-      </c>
-      <c r="D171">
-        <v>300</v>
-      </c>
-      <c r="E171">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>855</v>
-      </c>
-      <c r="B172">
-        <v>100</v>
-      </c>
-      <c r="C172">
-        <v>200</v>
-      </c>
-      <c r="D172">
-        <v>300</v>
-      </c>
-      <c r="E172">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>860</v>
-      </c>
-      <c r="B173">
-        <v>100</v>
-      </c>
-      <c r="C173">
-        <v>200</v>
-      </c>
-      <c r="D173">
-        <v>300</v>
-      </c>
-      <c r="E173">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>865</v>
-      </c>
-      <c r="B174">
-        <v>100</v>
-      </c>
-      <c r="C174">
-        <v>200</v>
-      </c>
-      <c r="D174">
-        <v>300</v>
-      </c>
-      <c r="E174">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>870</v>
-      </c>
-      <c r="B175">
-        <v>100</v>
-      </c>
-      <c r="C175">
-        <v>200</v>
-      </c>
-      <c r="D175">
-        <v>300</v>
-      </c>
-      <c r="E175">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>875</v>
-      </c>
-      <c r="B176">
-        <v>100</v>
-      </c>
-      <c r="C176">
-        <v>200</v>
-      </c>
-      <c r="D176">
-        <v>300</v>
-      </c>
-      <c r="E176">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>880</v>
-      </c>
-      <c r="B177">
-        <v>100</v>
-      </c>
-      <c r="C177">
-        <v>200</v>
-      </c>
-      <c r="D177">
-        <v>300</v>
-      </c>
-      <c r="E177">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>885</v>
-      </c>
-      <c r="B178">
-        <v>100</v>
-      </c>
-      <c r="C178">
-        <v>200</v>
-      </c>
-      <c r="D178">
-        <v>300</v>
-      </c>
-      <c r="E178">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>890</v>
-      </c>
-      <c r="B179">
-        <v>100</v>
-      </c>
-      <c r="C179">
-        <v>200</v>
-      </c>
-      <c r="D179">
-        <v>300</v>
-      </c>
-      <c r="E179">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>895</v>
-      </c>
-      <c r="B180">
-        <v>100</v>
-      </c>
-      <c r="C180">
-        <v>200</v>
-      </c>
-      <c r="D180">
-        <v>300</v>
-      </c>
-      <c r="E180">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>900</v>
-      </c>
-      <c r="B181">
-        <v>100</v>
-      </c>
-      <c r="C181">
-        <v>200</v>
-      </c>
-      <c r="D181">
-        <v>300</v>
-      </c>
-      <c r="E181">
-        <v>400</v>
-      </c>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
